--- a/hd.xlsx
+++ b/hd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ellenara\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B10F503B-B170-47E5-A792-E5E5B29A4EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F3226F-B492-4A0A-9EAF-ECD2B1CFFA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8964" xr2:uid="{4D101068-D3DE-41DD-9647-8BB78F70D39D}"/>
   </bookViews>
@@ -134,8 +134,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,10 +453,18 @@
   <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H304"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.109375" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
